--- a/FundEstimate.xlsx
+++ b/FundEstimate.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
@@ -9,7 +9,7 @@
     <sheet name="基金操作" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'基金操作'!$A$2:$N$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'基金操作'!$A$2:$N$31</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -136,7 +136,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -159,11 +159,23 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -528,42 +540,42 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
+  <sheetPr codeName="Sheet1">
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H29"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col width="9.75" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="42.625" bestFit="1" customWidth="1" style="1" min="2" max="2"/>
-    <col width="14.125" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
-    <col width="18.375" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
+    <col width="42.625" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="17" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
+    <col width="31.25" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="15" customWidth="1" style="1" min="5" max="5"/>
     <col width="12.5" customWidth="1" style="1" min="6" max="6"/>
     <col width="15.625" customWidth="1" style="1" min="7" max="7"/>
     <col width="39.75" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.125" customWidth="1" style="1" min="9" max="20"/>
-    <col width="10.125" customWidth="1" style="1" min="21" max="16384"/>
+    <col width="10.125" customWidth="1" style="1" min="9" max="23"/>
+    <col width="10.125" customWidth="1" style="1" min="24" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="8">
+      <c r="A1" s="9">
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="B1" s="9" t="n"/>
-      <c r="C1" s="9" t="n"/>
-      <c r="D1" s="9" t="n"/>
-      <c r="E1" s="9" t="n"/>
-      <c r="F1" s="9" t="n"/>
-      <c r="G1" s="9" t="n"/>
-      <c r="H1" s="10" t="n"/>
+      <c r="B1" s="10" t="n"/>
+      <c r="C1" s="10" t="n"/>
+      <c r="D1" s="10" t="n"/>
+      <c r="E1" s="10" t="n"/>
+      <c r="F1" s="10" t="n"/>
+      <c r="G1" s="10" t="n"/>
+      <c r="H1" s="11" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -571,7 +583,7 @@
           <t>基金代码</t>
         </is>
       </c>
-      <c r="B2" s="4" t="inlineStr">
+      <c r="B2" s="12" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
@@ -613,7 +625,7 @@
           <t>017437</t>
         </is>
       </c>
-      <c r="B3" s="6" t="inlineStr">
+      <c r="B3" s="13" t="inlineStr">
         <is>
           <t>华宝纳斯达克精选股票发起式(QDII)C</t>
         </is>
@@ -630,13 +642,13 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>-3.12%</t>
+          <t>1.97%</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
-        <v>4500</v>
-      </c>
-      <c r="G3" s="11">
+        <v>4600</v>
+      </c>
+      <c r="G3" s="15">
         <f>F3*E3</f>
         <v/>
       </c>
@@ -652,7 +664,7 @@
           <t>015794</t>
         </is>
       </c>
-      <c r="B4" s="6" t="inlineStr">
+      <c r="B4" s="13" t="inlineStr">
         <is>
           <t>天弘创业板指数增强A</t>
         </is>
@@ -669,13 +681,13 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>-1.07%</t>
+          <t>1.86%</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>4100</v>
-      </c>
-      <c r="G4" s="11">
+        <v>4000</v>
+      </c>
+      <c r="G4" s="15">
         <f>F4*E4</f>
         <v/>
       </c>
@@ -688,72 +700,72 @@
     <row r="5" ht="18" customHeight="1">
       <c r="A5" s="5" t="inlineStr">
         <is>
-          <t>014777</t>
-        </is>
-      </c>
-      <c r="B5" s="6" t="inlineStr">
-        <is>
-          <t>富国中证芯片产业ETF发起式联接C</t>
+          <t>025209</t>
+        </is>
+      </c>
+      <c r="B5" s="13" t="inlineStr">
+        <is>
+          <t>永赢先锋半导体智选混合发起C</t>
         </is>
       </c>
       <c r="C5" s="5" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>512480</t>
         </is>
       </c>
       <c r="D5" s="5" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>半导体ETF</t>
         </is>
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G5" s="11">
+        <v>3800</v>
+      </c>
+      <c r="G5" s="15">
         <f>F5*E5</f>
         <v/>
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>错误</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>011036</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="inlineStr">
-        <is>
-          <t>嘉实中证稀土产业ETF联接C</t>
+          <t>014777</t>
+        </is>
+      </c>
+      <c r="B6" s="13" t="inlineStr">
+        <is>
+          <t>富国中证芯片产业ETF发起式联接C</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>516150</t>
+          <t>159995</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>稀土ETF嘉实</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>-1.87%</t>
+          <t>0.88%</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G6" s="11">
+        <v>3700</v>
+      </c>
+      <c r="G6" s="15">
         <f>F6*E6</f>
         <v/>
       </c>
@@ -766,72 +778,72 @@
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>025209</t>
-        </is>
-      </c>
-      <c r="B7" s="6" t="inlineStr">
-        <is>
-          <t>永赢先锋半导体智选混合发起C</t>
+          <t>000834</t>
+        </is>
+      </c>
+      <c r="B7" s="13" t="inlineStr">
+        <is>
+          <t>大成纳斯达克100ETF联接(QDII)A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>512480</t>
+          <t>513300</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>半导体ETF</t>
+          <t>纳斯达克ETF</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>1.00%</t>
+          <t>2.01%</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>4200</v>
-      </c>
-      <c r="G7" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G7" s="15">
         <f>F7*E7</f>
         <v/>
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="8" ht="18" customHeight="1">
       <c r="A8" s="5" t="inlineStr">
         <is>
-          <t>018956</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="inlineStr">
-        <is>
-          <t>中航机遇领航混合发起A</t>
+          <t>011036</t>
+        </is>
+      </c>
+      <c r="B8" s="13" t="inlineStr">
+        <is>
+          <t>嘉实中证稀土产业ETF联接C</t>
         </is>
       </c>
       <c r="C8" s="5" t="inlineStr">
         <is>
-          <t>002837</t>
+          <t>516150</t>
         </is>
       </c>
       <c r="D8" s="5" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>稀土ETF嘉实</t>
         </is>
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>1.32%</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G8" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G8" s="15">
         <f>F8*E8</f>
         <v/>
       </c>
@@ -844,78 +856,78 @@
     <row r="9" ht="18" customHeight="1">
       <c r="A9" s="5" t="inlineStr">
         <is>
-          <t>006939</t>
-        </is>
-      </c>
-      <c r="B9" s="6" t="inlineStr">
-        <is>
-          <t>鹏华沪深300ETF联接(LOF)C</t>
+          <t>011103</t>
+        </is>
+      </c>
+      <c r="B9" s="13" t="inlineStr">
+        <is>
+          <t>天弘中证光伏产业指数C</t>
         </is>
       </c>
       <c r="C9" s="5" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>515790</t>
         </is>
       </c>
       <c r="D9" s="5" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>光伏ETF</t>
         </is>
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>-0.57%</t>
+          <t>2.05%</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G9" s="11">
+        <v>3300</v>
+      </c>
+      <c r="G9" s="15">
         <f>F9*E9</f>
         <v/>
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>011103</t>
-        </is>
-      </c>
-      <c r="B10" s="6" t="inlineStr">
-        <is>
-          <t>天弘中证光伏产业指数C</t>
+          <t>006939</t>
+        </is>
+      </c>
+      <c r="B10" s="13" t="inlineStr">
+        <is>
+          <t>鹏华沪深300ETF联接(LOF)C</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>515790</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>光伏ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>-2.62%</t>
+          <t>0.88%</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3500</v>
-      </c>
-      <c r="G10" s="11">
+        <v>3100</v>
+      </c>
+      <c r="G10" s="15">
         <f>F10*E10</f>
         <v/>
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -925,7 +937,7 @@
           <t>010955</t>
         </is>
       </c>
-      <c r="B11" s="6" t="inlineStr">
+      <c r="B11" s="13" t="inlineStr">
         <is>
           <t>天弘中证智能汽车指数发起式A</t>
         </is>
@@ -942,13 +954,13 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>-0.63%</t>
+          <t>1.60%</t>
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3200</v>
-      </c>
-      <c r="G11" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G11" s="15">
         <f>F11*E11</f>
         <v/>
       </c>
@@ -961,76 +973,78 @@
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>000834</t>
-        </is>
-      </c>
-      <c r="B12" s="6" t="inlineStr">
-        <is>
-          <t>大成纳斯达克100ETF联接(QDII)A</t>
+          <t>012734</t>
+        </is>
+      </c>
+      <c r="B12" s="13" t="inlineStr">
+        <is>
+          <t>易方达中证人工智能主题ETF联接C</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>513300</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>纳斯达克ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>-3.12%</t>
+          <t>2.21%</t>
         </is>
       </c>
       <c r="F12" s="6" t="n">
-        <v>3300</v>
-      </c>
-      <c r="G12" s="11">
+        <v>3000</v>
+      </c>
+      <c r="G12" s="15">
         <f>F12*E12</f>
         <v/>
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议低位吸纳 200.00</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>015282</t>
-        </is>
-      </c>
-      <c r="B13" s="6" t="inlineStr">
-        <is>
-          <t>华安恒生科技ETF发起式联接(QDII)A</t>
-        </is>
-      </c>
-      <c r="C13" s="5" t="n">
-        <v>513580</v>
+          <t>016566</t>
+        </is>
+      </c>
+      <c r="B13" s="13" t="inlineStr">
+        <is>
+          <t>嘉实中证电池主题ETF发起联接A</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="inlineStr">
+        <is>
+          <t>562880</t>
+        </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>恒生科技ETF指数</t>
+          <t>电池ETF嘉实</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>-1.83%</t>
+          <t>2.35%</t>
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G13" s="11">
+        <v>2800</v>
+      </c>
+      <c r="G13" s="15">
         <f>F13*E13</f>
         <v/>
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1040,7 +1054,7 @@
           <t>020981</t>
         </is>
       </c>
-      <c r="B14" s="6" t="inlineStr">
+      <c r="B14" s="13" t="inlineStr">
         <is>
           <t>华安国证机器人产业指数发起式A</t>
         </is>
@@ -1057,13 +1071,13 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>-0.19%</t>
+          <t>0.77%</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
         <v>2600</v>
       </c>
-      <c r="G14" s="11">
+      <c r="G14" s="15">
         <f>F14*E14</f>
         <v/>
       </c>
@@ -1079,7 +1093,7 @@
           <t>018897</t>
         </is>
       </c>
-      <c r="B15" s="6" t="inlineStr">
+      <c r="B15" s="13" t="inlineStr">
         <is>
           <t>易方达消费电子ETF联接C</t>
         </is>
@@ -1096,19 +1110,19 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>-0.08%</t>
+          <t>1.96%</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2800</v>
-      </c>
-      <c r="G15" s="11">
+        <v>2600</v>
+      </c>
+      <c r="G15" s="15">
         <f>F15*E15</f>
         <v/>
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1118,7 +1132,7 @@
           <t>014172</t>
         </is>
       </c>
-      <c r="B16" s="6" t="inlineStr">
+      <c r="B16" s="13" t="inlineStr">
         <is>
           <t>富国中证工业4.0指数(LOF)C</t>
         </is>
@@ -1135,13 +1149,13 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>-0.12%</t>
+          <t>1.34%</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
         <v>2300</v>
       </c>
-      <c r="G16" s="11">
+      <c r="G16" s="15">
         <f>F16*E16</f>
         <v/>
       </c>
@@ -1154,33 +1168,33 @@
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>006327</t>
-        </is>
-      </c>
-      <c r="B17" s="6" t="inlineStr">
-        <is>
-          <t>易方达中证海外互联网50ETF联接(QDII)A</t>
+          <t>016202</t>
+        </is>
+      </c>
+      <c r="B17" s="13" t="inlineStr">
+        <is>
+          <t>汇添富全球汽车产业升级混合(QDII)人民币C</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>513050</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>特斯拉</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>-1.33%</t>
+          <t>6.82%</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G17" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G17" s="15">
         <f>F17*E17</f>
         <v/>
       </c>
@@ -1193,72 +1207,70 @@
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>016202</t>
-        </is>
-      </c>
-      <c r="B18" s="6" t="inlineStr">
-        <is>
-          <t>汇添富全球汽车产业升级混合(QDII)人民币C</t>
+          <t>161724</t>
+        </is>
+      </c>
+      <c r="B18" s="13" t="inlineStr">
+        <is>
+          <t>招商中证煤炭等权指数(LOF)A</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>515220</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>特斯拉</t>
+          <t>煤炭ETF</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>1.13%</t>
+          <t>0.45%</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G18" s="11">
+        <v>2000</v>
+      </c>
+      <c r="G18" s="15">
         <f>F18*E18</f>
         <v/>
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>006888</t>
-        </is>
-      </c>
-      <c r="B19" s="6" t="inlineStr">
-        <is>
-          <t>诺德新生活混合C</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="inlineStr">
-        <is>
-          <t>688498</t>
-        </is>
+          <t>015282</t>
+        </is>
+      </c>
+      <c r="B19" s="13" t="inlineStr">
+        <is>
+          <t>华安恒生科技ETF发起式联接(QDII)A</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n">
+        <v>513580</v>
       </c>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>源杰科技</t>
+          <t>恒生科技ETF指数</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>5.07%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1700</v>
-      </c>
-      <c r="G19" s="11">
+        <v>1800</v>
+      </c>
+      <c r="G19" s="15">
         <f>F19*E19</f>
         <v/>
       </c>
@@ -1271,33 +1283,33 @@
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>013195</t>
-        </is>
-      </c>
-      <c r="B20" s="6" t="inlineStr">
-        <is>
-          <t>招商中证新能源汽车指数A</t>
+          <t>020629</t>
+        </is>
+      </c>
+      <c r="B20" s="13" t="inlineStr">
+        <is>
+          <t>汇添富上证科创板芯片ETF发起式联接C</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>516390</t>
+          <t>588750</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>新能源汽车ETF</t>
+          <t>科创芯片50ETF</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>-3.49%</t>
+          <t>1.33%</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>2200</v>
-      </c>
-      <c r="G20" s="11">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="15">
         <f>F20*E20</f>
         <v/>
       </c>
@@ -1310,111 +1322,111 @@
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>020629</t>
-        </is>
-      </c>
-      <c r="B21" s="6" t="inlineStr">
-        <is>
-          <t>汇添富上证科创板芯片ETF发起式联接C</t>
+          <t>006888</t>
+        </is>
+      </c>
+      <c r="B21" s="13" t="inlineStr">
+        <is>
+          <t>诺德新生活混合C</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>588750</t>
+          <t>688498</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>科创芯片50ETF</t>
+          <t>源杰科技</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>1.19%</t>
+          <t>6.35%</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1800</v>
-      </c>
-      <c r="G21" s="11">
+        <v>1700</v>
+      </c>
+      <c r="G21" s="15">
         <f>F21*E21</f>
         <v/>
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议低位吸纳 200.00</t>
         </is>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>016566</t>
-        </is>
-      </c>
-      <c r="B22" s="6" t="inlineStr">
-        <is>
-          <t>嘉实中证电池主题ETF发起联接A</t>
+          <t>005634</t>
+        </is>
+      </c>
+      <c r="B22" s="13" t="inlineStr">
+        <is>
+          <t>汇安行业龙头混合A</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>562880</t>
+          <t>688596</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>电池ETF嘉实</t>
+          <t>正帆科技</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>-4.37%</t>
+          <t>1.04%</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>2300</v>
-      </c>
-      <c r="G22" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G22" s="15">
         <f>F22*E22</f>
         <v/>
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议低位吸纳 200.00</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>012734</t>
-        </is>
-      </c>
-      <c r="B23" s="6" t="inlineStr">
-        <is>
-          <t>易方达中证人工智能主题ETF联接C</t>
+          <t>006327</t>
+        </is>
+      </c>
+      <c r="B23" s="13" t="inlineStr">
+        <is>
+          <t>易方达中证海外互联网50ETF联接(QDII)A</t>
         </is>
       </c>
       <c r="C23" s="5" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>513050</t>
         </is>
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>0.50%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>3000</v>
-      </c>
-      <c r="G23" s="11">
+        <v>1500</v>
+      </c>
+      <c r="G23" s="15">
         <f>F23*E23</f>
         <v/>
       </c>
@@ -1427,33 +1439,33 @@
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>161724</t>
-        </is>
-      </c>
-      <c r="B24" s="6" t="inlineStr">
-        <is>
-          <t>招商中证煤炭等权指数(LOF)A</t>
+          <t>018956</t>
+        </is>
+      </c>
+      <c r="B24" s="13" t="inlineStr">
+        <is>
+          <t>中航机遇领航混合发起A</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>002837</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>-3.48%</t>
+          <t>7.61%</t>
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1600</v>
-      </c>
-      <c r="G24" s="11">
+        <v>1300</v>
+      </c>
+      <c r="G24" s="15">
         <f>F24*E24</f>
         <v/>
       </c>
@@ -1466,33 +1478,33 @@
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>022500</t>
-        </is>
-      </c>
-      <c r="B25" s="6" t="inlineStr">
-        <is>
-          <t>国泰中证全指通信设备ETF联接E</t>
+          <t>019305</t>
+        </is>
+      </c>
+      <c r="B25" s="13" t="inlineStr">
+        <is>
+          <t>摩根标普500指数(QDII)人民币C</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>515880</t>
+          <t>161125</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>通信ETF</t>
+          <t>标普500LOF</t>
         </is>
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>-0.31%</t>
+          <t>1.15%</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>700</v>
-      </c>
-      <c r="G25" s="11">
+        <v>1200</v>
+      </c>
+      <c r="G25" s="15">
         <f>F25*E25</f>
         <v/>
       </c>
@@ -1505,140 +1517,217 @@
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>019305</t>
-        </is>
-      </c>
-      <c r="B26" s="6" t="inlineStr">
-        <is>
-          <t>摩根标普500指数(QDII)人民币C</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="inlineStr">
-        <is>
-          <t>161125</t>
-        </is>
-      </c>
+          <t>018156</t>
+        </is>
+      </c>
+      <c r="B26" s="13" t="inlineStr">
+        <is>
+          <t>创金合信全球医药生物股票发起(QDII)C</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="n"/>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>标普500LOF</t>
+          <t>Nuveen New York Quality Municip</t>
         </is>
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>-2.73%</t>
+          <t>0.44%</t>
         </is>
       </c>
       <c r="F26" s="6" t="n">
         <v>1000</v>
       </c>
-      <c r="G26" s="11">
+      <c r="G26" s="15">
         <f>F26*E26</f>
         <v/>
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>强势上升趋势(超买)，建议适度加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="27" ht="18" customHeight="1">
       <c r="A27" s="5" t="inlineStr">
         <is>
-          <t>005634</t>
-        </is>
-      </c>
-      <c r="B27" s="6" t="inlineStr">
-        <is>
-          <t>汇安行业龙头混合A</t>
+          <t>022500</t>
+        </is>
+      </c>
+      <c r="B27" s="13" t="inlineStr">
+        <is>
+          <t>国泰中证全指通信设备ETF联接E</t>
         </is>
       </c>
       <c r="C27" s="5" t="inlineStr">
         <is>
-          <t>688596</t>
+          <t>515880</t>
         </is>
       </c>
       <c r="D27" s="5" t="inlineStr">
         <is>
-          <t>正帆科技</t>
+          <t>通信ETF</t>
         </is>
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>-0.81%</t>
+          <t>3.50%</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1300</v>
-      </c>
-      <c r="G27" s="11">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="15">
         <f>F27*E27</f>
         <v/>
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="A28" s="5" t="inlineStr">
         <is>
+          <t>013195</t>
+        </is>
+      </c>
+      <c r="B28" s="13" t="inlineStr">
+        <is>
+          <t>招商中证新能源汽车指数A</t>
+        </is>
+      </c>
+      <c r="C28" s="5" t="inlineStr">
+        <is>
+          <t>516390</t>
+        </is>
+      </c>
+      <c r="D28" s="5" t="inlineStr">
+        <is>
+          <t>新能源汽车ETF</t>
+        </is>
+      </c>
+      <c r="E28" s="6" t="inlineStr">
+        <is>
+          <t>1.80%</t>
+        </is>
+      </c>
+      <c r="F28" s="6" t="n">
+        <v>1000</v>
+      </c>
+      <c r="G28" s="15">
+        <f>F28*E28</f>
+        <v/>
+      </c>
+      <c r="H28" s="6" t="inlineStr">
+        <is>
+          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+        </is>
+      </c>
+    </row>
+    <row r="29" ht="18" customHeight="1">
+      <c r="A29" s="5" t="inlineStr">
+        <is>
+          <t>290008</t>
+        </is>
+      </c>
+      <c r="B29" s="13" t="inlineStr">
+        <is>
+          <t>泰信发展主题混合</t>
+        </is>
+      </c>
+      <c r="C29" s="5" t="inlineStr">
+        <is>
+          <t>002460</t>
+        </is>
+      </c>
+      <c r="D29" s="5" t="inlineStr">
+        <is>
+          <t>赣锋锂业</t>
+        </is>
+      </c>
+      <c r="E29" s="6" t="inlineStr">
+        <is>
+          <t>2.39%</t>
+        </is>
+      </c>
+      <c r="F29" s="6" t="n">
+        <v>950</v>
+      </c>
+      <c r="G29" s="15">
+        <f>F29*E29</f>
+        <v/>
+      </c>
+      <c r="H29" s="6" t="inlineStr">
+        <is>
+          <t>震荡市，建议低位吸纳 200.00</t>
+        </is>
+      </c>
+    </row>
+    <row r="30" ht="18" customHeight="1">
+      <c r="A30" s="5" t="inlineStr">
+        <is>
           <t>021074</t>
         </is>
       </c>
-      <c r="B28" s="6" t="inlineStr">
+      <c r="B30" s="13" t="inlineStr">
         <is>
           <t>华夏中证沪深港黄金产业股票ETF发起式联接A</t>
         </is>
       </c>
-      <c r="C28" s="5" t="inlineStr">
+      <c r="C30" s="5" t="inlineStr">
         <is>
           <t>159562</t>
         </is>
       </c>
-      <c r="D28" s="5" t="inlineStr">
+      <c r="D30" s="5" t="inlineStr">
         <is>
           <t>黄金股ETF</t>
         </is>
       </c>
-      <c r="E28" s="6" t="inlineStr">
-        <is>
-          <t>-2.45%</t>
-        </is>
-      </c>
-      <c r="F28" s="6" t="n">
+      <c r="E30" s="6" t="inlineStr">
+        <is>
+          <t>2.01%</t>
+        </is>
+      </c>
+      <c r="F30" s="6" t="n">
         <v>700</v>
       </c>
-      <c r="G28" s="11">
-        <f>F28*E28</f>
-        <v/>
-      </c>
-      <c r="H28" s="6" t="inlineStr">
+      <c r="G30" s="15">
+        <f>F30*E30</f>
+        <v/>
+      </c>
+      <c r="H30" s="6" t="inlineStr">
         <is>
           <t>震荡市，建议低位吸纳 200.00</t>
         </is>
       </c>
     </row>
-    <row r="29" ht="18" customHeight="1">
-      <c r="A29" s="5" t="n"/>
-      <c r="B29" s="6" t="n"/>
-      <c r="C29" s="5" t="n"/>
-      <c r="D29" s="5" t="n"/>
-      <c r="E29" s="6" t="n"/>
-      <c r="F29" s="6">
-        <f>SUM(F3:F28)</f>
-        <v/>
-      </c>
-      <c r="G29" s="11">
+    <row r="31" ht="18" customHeight="1">
+      <c r="A31" s="5" t="n"/>
+      <c r="B31" s="13" t="n"/>
+      <c r="C31" s="5" t="n"/>
+      <c r="D31" s="5" t="n"/>
+      <c r="E31" s="8">
+        <f>G31/F31</f>
+        <v/>
+      </c>
+      <c r="F31" s="6">
+        <f>SUM(F3:F30)</f>
+        <v/>
+      </c>
+      <c r="G31" s="15">
         <f>SUM(G3:G28)</f>
         <v/>
       </c>
-      <c r="H29" s="6" t="n"/>
+      <c r="H31" s="6" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N29">
-    <sortState ref="A3:N29">
-      <sortCondition descending="1" ref="F2"/>
+  <autoFilter ref="A2:N31">
+    <sortState ref="A3:H31">
+      <sortCondition ref="B2:B31"/>
     </sortState>
   </autoFilter>
   <mergeCells count="1">

--- a/FundEstimate.xlsx
+++ b/FundEstimate.xlsx
@@ -162,11 +162,6 @@
     <xf numFmtId="10" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -176,6 +171,11 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -547,35 +547,35 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD30"/>
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.125" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col width="9.75" bestFit="1" customWidth="1" style="2" min="1" max="1"/>
-    <col width="42.625" bestFit="1" customWidth="1" style="14" min="2" max="2"/>
+    <col width="42.625" bestFit="1" customWidth="1" style="11" min="2" max="2"/>
     <col width="17" bestFit="1" customWidth="1" style="2" min="3" max="3"/>
     <col width="31.25" bestFit="1" customWidth="1" style="2" min="4" max="4"/>
     <col width="15" customWidth="1" style="1" min="5" max="5"/>
     <col width="12.5" customWidth="1" style="1" min="6" max="6"/>
     <col width="15.625" customWidth="1" style="1" min="7" max="7"/>
     <col width="39.75" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.125" customWidth="1" style="1" min="9" max="23"/>
-    <col width="10.125" customWidth="1" style="1" min="24" max="16384"/>
+    <col width="10.125" customWidth="1" style="1" min="9" max="24"/>
+    <col width="10.125" customWidth="1" style="1" min="25" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
-      <c r="A1" s="9">
+      <c r="A1" s="12">
         <f>TODAY()</f>
         <v/>
       </c>
-      <c r="B1" s="10" t="n"/>
-      <c r="C1" s="10" t="n"/>
-      <c r="D1" s="10" t="n"/>
-      <c r="E1" s="10" t="n"/>
-      <c r="F1" s="10" t="n"/>
-      <c r="G1" s="10" t="n"/>
-      <c r="H1" s="11" t="n"/>
+      <c r="B1" s="13" t="n"/>
+      <c r="C1" s="13" t="n"/>
+      <c r="D1" s="13" t="n"/>
+      <c r="E1" s="13" t="n"/>
+      <c r="F1" s="13" t="n"/>
+      <c r="G1" s="13" t="n"/>
+      <c r="H1" s="14" t="n"/>
     </row>
     <row r="2" ht="18" customHeight="1">
       <c r="A2" s="3" t="inlineStr">
@@ -583,7 +583,7 @@
           <t>基金代码</t>
         </is>
       </c>
-      <c r="B2" s="12" t="inlineStr">
+      <c r="B2" s="9" t="inlineStr">
         <is>
           <t>基金名称</t>
         </is>
@@ -625,7 +625,7 @@
           <t>017437</t>
         </is>
       </c>
-      <c r="B3" s="13" t="inlineStr">
+      <c r="B3" s="10" t="inlineStr">
         <is>
           <t>华宝纳斯达克精选股票发起式(QDII)C</t>
         </is>
@@ -642,7 +642,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>1.97%</t>
+          <t>0.33%</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -664,7 +664,7 @@
           <t>015794</t>
         </is>
       </c>
-      <c r="B4" s="13" t="inlineStr">
+      <c r="B4" s="10" t="inlineStr">
         <is>
           <t>天弘创业板指数增强A</t>
         </is>
@@ -681,7 +681,7 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>1.86%</t>
+          <t>0.13%</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
@@ -703,7 +703,7 @@
           <t>025209</t>
         </is>
       </c>
-      <c r="B5" s="13" t="inlineStr">
+      <c r="B5" s="10" t="inlineStr">
         <is>
           <t>永赢先锋半导体智选混合发起C</t>
         </is>
@@ -720,7 +720,7 @@
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>1.05%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>错误</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -742,7 +742,7 @@
           <t>014777</t>
         </is>
       </c>
-      <c r="B6" s="13" t="inlineStr">
+      <c r="B6" s="10" t="inlineStr">
         <is>
           <t>富国中证芯片产业ETF发起式联接C</t>
         </is>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
@@ -781,7 +781,7 @@
           <t>000834</t>
         </is>
       </c>
-      <c r="B7" s="13" t="inlineStr">
+      <c r="B7" s="10" t="inlineStr">
         <is>
           <t>大成纳斯达克100ETF联接(QDII)A</t>
         </is>
@@ -798,7 +798,7 @@
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -820,7 +820,7 @@
           <t>011036</t>
         </is>
       </c>
-      <c r="B8" s="13" t="inlineStr">
+      <c r="B8" s="10" t="inlineStr">
         <is>
           <t>嘉实中证稀土产业ETF联接C</t>
         </is>
@@ -837,7 +837,7 @@
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>1.32%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
@@ -859,7 +859,7 @@
           <t>011103</t>
         </is>
       </c>
-      <c r="B9" s="13" t="inlineStr">
+      <c r="B9" s="10" t="inlineStr">
         <is>
           <t>天弘中证光伏产业指数C</t>
         </is>
@@ -876,7 +876,7 @@
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>2.05%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+          <t>震荡市，建议低位吸纳 200.00</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
           <t>006939</t>
         </is>
       </c>
-      <c r="B10" s="13" t="inlineStr">
+      <c r="B10" s="10" t="inlineStr">
         <is>
           <t>鹏华沪深300ETF联接(LOF)C</t>
         </is>
@@ -915,7 +915,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>0.88%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
@@ -937,7 +937,7 @@
           <t>010955</t>
         </is>
       </c>
-      <c r="B11" s="13" t="inlineStr">
+      <c r="B11" s="10" t="inlineStr">
         <is>
           <t>天弘中证智能汽车指数发起式A</t>
         </is>
@@ -954,7 +954,7 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>1.60%</t>
+          <t>0.28%</t>
         </is>
       </c>
       <c r="F11" s="6" t="n">
@@ -976,7 +976,7 @@
           <t>012734</t>
         </is>
       </c>
-      <c r="B12" s="13" t="inlineStr">
+      <c r="B12" s="10" t="inlineStr">
         <is>
           <t>易方达中证人工智能主题ETF联接C</t>
         </is>
@@ -993,7 +993,7 @@
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>2.21%</t>
+          <t>-0.35%</t>
         </is>
       </c>
       <c r="F12" s="6" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1015,7 +1015,7 @@
           <t>016566</t>
         </is>
       </c>
-      <c r="B13" s="13" t="inlineStr">
+      <c r="B13" s="10" t="inlineStr">
         <is>
           <t>嘉实中证电池主题ETF发起联接A</t>
         </is>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>2.35%</t>
+          <t>0.96%</t>
         </is>
       </c>
       <c r="F13" s="6" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1054,7 +1054,7 @@
           <t>020981</t>
         </is>
       </c>
-      <c r="B14" s="13" t="inlineStr">
+      <c r="B14" s="10" t="inlineStr">
         <is>
           <t>华安国证机器人产业指数发起式A</t>
         </is>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>0.77%</t>
+          <t>0.29%</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
@@ -1093,7 +1093,7 @@
           <t>018897</t>
         </is>
       </c>
-      <c r="B15" s="13" t="inlineStr">
+      <c r="B15" s="10" t="inlineStr">
         <is>
           <t>易方达消费电子ETF联接C</t>
         </is>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>1.96%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1132,7 +1132,7 @@
           <t>014172</t>
         </is>
       </c>
-      <c r="B16" s="13" t="inlineStr">
+      <c r="B16" s="10" t="inlineStr">
         <is>
           <t>富国中证工业4.0指数(LOF)C</t>
         </is>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>0.36%</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
@@ -1171,7 +1171,7 @@
           <t>016202</t>
         </is>
       </c>
-      <c r="B17" s="13" t="inlineStr">
+      <c r="B17" s="10" t="inlineStr">
         <is>
           <t>汇添富全球汽车产业升级混合(QDII)人民币C</t>
         </is>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>6.82%</t>
+          <t>1.71%</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
@@ -1210,7 +1210,7 @@
           <t>161724</t>
         </is>
       </c>
-      <c r="B18" s="13" t="inlineStr">
+      <c r="B18" s="10" t="inlineStr">
         <is>
           <t>招商中证煤炭等权指数(LOF)A</t>
         </is>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>0.45%</t>
+          <t>-0.18%</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1249,7 +1249,7 @@
           <t>015282</t>
         </is>
       </c>
-      <c r="B19" s="13" t="inlineStr">
+      <c r="B19" s="10" t="inlineStr">
         <is>
           <t>华安恒生科技ETF发起式联接(QDII)A</t>
         </is>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
@@ -1286,7 +1286,7 @@
           <t>020629</t>
         </is>
       </c>
-      <c r="B20" s="13" t="inlineStr">
+      <c r="B20" s="10" t="inlineStr">
         <is>
           <t>汇添富上证科创板芯片ETF发起式联接C</t>
         </is>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>1.33%</t>
+          <t>0.81%</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
@@ -1325,7 +1325,7 @@
           <t>006888</t>
         </is>
       </c>
-      <c r="B21" s="13" t="inlineStr">
+      <c r="B21" s="10" t="inlineStr">
         <is>
           <t>诺德新生活混合C</t>
         </is>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>6.35%</t>
+          <t>-1.87%</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1364,7 +1364,7 @@
           <t>005634</t>
         </is>
       </c>
-      <c r="B22" s="13" t="inlineStr">
+      <c r="B22" s="10" t="inlineStr">
         <is>
           <t>汇安行业龙头混合A</t>
         </is>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>1.04%</t>
+          <t>-0.03%</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
@@ -1403,7 +1403,7 @@
           <t>006327</t>
         </is>
       </c>
-      <c r="B23" s="13" t="inlineStr">
+      <c r="B23" s="10" t="inlineStr">
         <is>
           <t>易方达中证海外互联网50ETF联接(QDII)A</t>
         </is>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>0.84%</t>
+          <t>0.26%</t>
         </is>
       </c>
       <c r="F23" s="6" t="n">
@@ -1442,7 +1442,7 @@
           <t>018956</t>
         </is>
       </c>
-      <c r="B24" s="13" t="inlineStr">
+      <c r="B24" s="10" t="inlineStr">
         <is>
           <t>中航机遇领航混合发起A</t>
         </is>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>7.61%</t>
+          <t>-0.54%</t>
         </is>
       </c>
       <c r="F24" s="6" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1481,7 +1481,7 @@
           <t>019305</t>
         </is>
       </c>
-      <c r="B25" s="13" t="inlineStr">
+      <c r="B25" s="10" t="inlineStr">
         <is>
           <t>摩根标普500指数(QDII)人民币C</t>
         </is>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>1.15%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1520,7 +1520,7 @@
           <t>018156</t>
         </is>
       </c>
-      <c r="B26" s="13" t="inlineStr">
+      <c r="B26" s="10" t="inlineStr">
         <is>
           <t>创金合信全球医药生物股票发起(QDII)C</t>
         </is>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>0.44%</t>
+          <t>-0.09%</t>
         </is>
       </c>
       <c r="F26" s="6" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>强势上升趋势(超买)，建议适度加仓 100.00</t>
+          <t>趋势保持强升，轻加仓 100.00</t>
         </is>
       </c>
     </row>
@@ -1555,7 +1555,7 @@
           <t>022500</t>
         </is>
       </c>
-      <c r="B27" s="13" t="inlineStr">
+      <c r="B27" s="10" t="inlineStr">
         <is>
           <t>国泰中证全指通信设备ETF联接E</t>
         </is>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>3.50%</t>
+          <t>-0.64%</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，建议高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1594,7 +1594,7 @@
           <t>013195</t>
         </is>
       </c>
-      <c r="B28" s="13" t="inlineStr">
+      <c r="B28" s="10" t="inlineStr">
         <is>
           <t>招商中证新能源汽车指数A</t>
         </is>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>1.80%</t>
+          <t>0.94%</t>
         </is>
       </c>
       <c r="F28" s="6" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>弱势下降趋势，建议缓慢减仓 10.00% 仓位</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1633,7 +1633,7 @@
           <t>290008</t>
         </is>
       </c>
-      <c r="B29" s="13" t="inlineStr">
+      <c r="B29" s="10" t="inlineStr">
         <is>
           <t>泰信发展主题混合</t>
         </is>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>2.39%</t>
+          <t>2.69%</t>
         </is>
       </c>
       <c r="F29" s="6" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>无</t>
         </is>
       </c>
     </row>
@@ -1672,7 +1672,7 @@
           <t>021074</t>
         </is>
       </c>
-      <c r="B30" s="13" t="inlineStr">
+      <c r="B30" s="10" t="inlineStr">
         <is>
           <t>华夏中证沪深港黄金产业股票ETF发起式联接A</t>
         </is>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>2.01%</t>
+          <t>1.34%</t>
         </is>
       </c>
       <c r="F30" s="6" t="n">
@@ -1701,13 +1701,13 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>无</t>
         </is>
       </c>
     </row>
     <row r="31" ht="18" customHeight="1">
       <c r="A31" s="5" t="n"/>
-      <c r="B31" s="13" t="n"/>
+      <c r="B31" s="10" t="n"/>
       <c r="C31" s="5" t="n"/>
       <c r="D31" s="5" t="n"/>
       <c r="E31" s="8">

--- a/FundEstimate.xlsx
+++ b/FundEstimate.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>0.79%</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>-0.29%</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>-0.43%</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>-0.06%</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>0.75%</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>0.70%</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>0.32%</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.02%</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>-0.73%</t>
         </is>
       </c>
       <c r="F11" s="6" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>-0.34%</t>
         </is>
       </c>
       <c r="F12" s="6" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>-0.84%</t>
         </is>
       </c>
       <c r="F13" s="6" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>-0.67%</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>-0.33%</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市突破中，等待确认</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>-0.49%</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>1.14%</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>-1.08%</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>-0.34%</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>-1.87%</t>
+          <t>6.07%</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>-1.11%</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，发现建仓机会，建议投资 1000.00</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>-1.10%</t>
         </is>
       </c>
       <c r="F23" s="6" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>0.74%</t>
         </is>
       </c>
       <c r="F24" s="6" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>0.60%</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，高位减持 -10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>0.35%</t>
         </is>
       </c>
       <c r="F26" s="6" t="n">
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>趋势保持强升，轻加仓 100.00</t>
+          <t>趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>-0.64%</t>
+          <t>0.25%</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>-1.45%</t>
         </is>
       </c>
       <c r="F28" s="6" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，低位吸纳 200.00</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>-1.74%</t>
         </is>
       </c>
       <c r="F29" s="6" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>0.65%</t>
         </is>
       </c>
       <c r="F30" s="6" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点</t>
         </is>
       </c>
     </row>

--- a/FundEstimate.xlsx
+++ b/FundEstimate.xlsx
@@ -642,7 +642,7 @@
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>0.33%</t>
+          <t>-0.50%</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -654,7 +654,7 @@
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -681,7 +681,7 @@
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>0.13%</t>
+          <t>0.76%</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
@@ -693,7 +693,7 @@
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -720,7 +720,7 @@
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>1.22%</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
@@ -732,7 +732,7 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 True，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -759,7 +759,7 @@
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>0.73%</t>
+          <t>1.39%</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
@@ -771,7 +771,7 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -798,7 +798,7 @@
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>-0.50%</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
@@ -810,7 +810,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -837,7 +837,7 @@
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>0.72%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
@@ -849,7 +849,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>0.63%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
@@ -888,7 +888,7 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，未发现操作点：平滑 True，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -915,7 +915,7 @@
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>0.11%</t>
+          <t>0.71%</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
@@ -927,7 +927,7 @@
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -954,7 +954,7 @@
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>0.28%</t>
+          <t>2.11%</t>
         </is>
       </c>
       <c r="F11" s="6" t="n">
@@ -966,7 +966,7 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -993,7 +993,7 @@
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>-0.35%</t>
+          <t>2.43%</t>
         </is>
       </c>
       <c r="F12" s="6" t="n">
@@ -1005,7 +1005,7 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1032,7 +1032,7 @@
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>0.96%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F13" s="6" t="n">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1071,7 +1071,7 @@
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>0.29%</t>
+          <t>1.05%</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
@@ -1083,7 +1083,7 @@
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1110,7 +1110,7 @@
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>0.51%</t>
+          <t>1.52%</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
@@ -1122,7 +1122,7 @@
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1149,7 +1149,7 @@
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>0.36%</t>
+          <t>1.57%</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
@@ -1161,7 +1161,7 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1188,7 +1188,7 @@
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>1.71%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
@@ -1200,7 +1200,7 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1227,7 +1227,7 @@
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>-0.18%</t>
+          <t>0.62%</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
@@ -1239,7 +1239,7 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1264,7 +1264,7 @@
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>0.40%</t>
+          <t>0.54%</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
@@ -1276,7 +1276,7 @@
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1303,7 +1303,7 @@
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>0.81%</t>
+          <t>0.73%</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
@@ -1315,7 +1315,7 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>-1.87%</t>
+          <t>-0.70%</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1381,7 +1381,7 @@
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>-0.03%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
@@ -1393,7 +1393,7 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议低位吸纳 200.00</t>
+          <t>震荡市，低位吸纳 200.00</t>
         </is>
       </c>
     </row>
@@ -1420,7 +1420,7 @@
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>0.26%</t>
+          <t>0.78%</t>
         </is>
       </c>
       <c r="F23" s="6" t="n">
@@ -1432,7 +1432,7 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1459,7 +1459,7 @@
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>-0.54%</t>
+          <t>3.16%</t>
         </is>
       </c>
       <c r="F24" s="6" t="n">
@@ -1471,7 +1471,7 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡→弱升，试探性建仓 200.00</t>
         </is>
       </c>
     </row>
@@ -1498,7 +1498,7 @@
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>0.20%</t>
+          <t>-0.40%</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
@@ -1510,7 +1510,7 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1533,7 +1533,7 @@
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>-0.09%</t>
+          <t>0.03%</t>
         </is>
       </c>
       <c r="F26" s="6" t="n">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>-0.64%</t>
+          <t>2.88%</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
@@ -1584,7 +1584,7 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>震荡市，建议高位减持 10.00% 仓位</t>
+          <t>震荡市，未发现操作点：平滑 False，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1611,7 +1611,7 @@
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>0.94%</t>
+          <t>0.72%</t>
         </is>
       </c>
       <c r="F28" s="6" t="n">
@@ -1623,7 +1623,7 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，未发现操作点：平滑 True，成交量无下跌 True，成交量无突破 True</t>
         </is>
       </c>
     </row>
@@ -1650,7 +1650,7 @@
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>2.69%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F29" s="6" t="n">
@@ -1662,7 +1662,7 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>无操作</t>
         </is>
       </c>
     </row>
@@ -1689,7 +1689,7 @@
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>1.34%</t>
+          <t>2.95%</t>
         </is>
       </c>
       <c r="F30" s="6" t="n">
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>无</t>
+          <t>震荡市，高位减持 -10.00% 仓位</t>
         </is>
       </c>
     </row>

--- a/FundEstimate.xlsx
+++ b/FundEstimate.xlsx
@@ -9,7 +9,7 @@
     <sheet name="基金操作" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'基金操作'!$A$2:$N$31</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'基金操作'!$A$2:$H$2</definedName>
   </definedNames>
   <calcPr calcId="191029" fullCalcOnLoad="1"/>
 </workbook>
@@ -547,7 +547,7 @@
   <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.125" defaultRowHeight="18" customHeight="1"/>
@@ -560,8 +560,8 @@
     <col width="12.5" customWidth="1" style="1" min="6" max="6"/>
     <col width="15.625" customWidth="1" style="1" min="7" max="7"/>
     <col width="39.75" customWidth="1" style="1" min="8" max="8"/>
-    <col width="10.125" customWidth="1" style="1" min="9" max="24"/>
-    <col width="10.125" customWidth="1" style="1" min="25" max="16384"/>
+    <col width="10.125" customWidth="1" style="1" min="9" max="27"/>
+    <col width="10.125" customWidth="1" style="1" min="28" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="18" customHeight="1">
@@ -622,27 +622,27 @@
     <row r="3" ht="18" customHeight="1">
       <c r="A3" s="5" t="inlineStr">
         <is>
-          <t>017437</t>
+          <t>015794</t>
         </is>
       </c>
       <c r="B3" s="10" t="inlineStr">
         <is>
-          <t>华宝纳斯达克精选股票发起式(QDII)C</t>
+          <t>天弘创业板指数增强A</t>
         </is>
       </c>
       <c r="C3" s="5" t="inlineStr">
         <is>
-          <t>513300</t>
+          <t>159915</t>
         </is>
       </c>
       <c r="D3" s="5" t="inlineStr">
         <is>
-          <t>纳斯达克ETF</t>
+          <t>创业板ETF</t>
         </is>
       </c>
       <c r="E3" s="6" t="inlineStr">
         <is>
-          <t>0.79%</t>
+          <t>0.19%</t>
         </is>
       </c>
       <c r="F3" s="6" t="n">
@@ -654,38 +654,38 @@
       </c>
       <c r="H3" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → WU，震荡→弱升，试探性建仓 200.00</t>
         </is>
       </c>
     </row>
     <row r="4" ht="18" customHeight="1">
       <c r="A4" s="5" t="inlineStr">
         <is>
-          <t>015794</t>
+          <t>014777</t>
         </is>
       </c>
       <c r="B4" s="10" t="inlineStr">
         <is>
-          <t>天弘创业板指数增强A</t>
+          <t>富国中证芯片产业ETF发起式联接C</t>
         </is>
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>159915</t>
+          <t>159995</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
         <is>
-          <t>创业板ETF</t>
+          <t>芯片ETF</t>
         </is>
       </c>
       <c r="E4" s="6" t="inlineStr">
         <is>
-          <t>-0.29%</t>
+          <t>0.87%</t>
         </is>
       </c>
       <c r="F4" s="6" t="n">
-        <v>4000</v>
+        <v>4200</v>
       </c>
       <c r="G4" s="15">
         <f>F4*E4</f>
@@ -693,7 +693,7 @@
       </c>
       <c r="H4" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → WU，震荡→弱升，试探性建仓 200.00</t>
         </is>
       </c>
     </row>
@@ -720,11 +720,11 @@
       </c>
       <c r="E5" s="6" t="inlineStr">
         <is>
-          <t>-0.43%</t>
+          <t>1.03%</t>
         </is>
       </c>
       <c r="F5" s="6" t="n">
-        <v>3800</v>
+        <v>4100</v>
       </c>
       <c r="G5" s="15">
         <f>F5*E5</f>
@@ -732,34 +732,34 @@
       </c>
       <c r="H5" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>错误</t>
         </is>
       </c>
     </row>
     <row r="6" ht="18" customHeight="1">
       <c r="A6" s="5" t="inlineStr">
         <is>
-          <t>014777</t>
+          <t>017437</t>
         </is>
       </c>
       <c r="B6" s="10" t="inlineStr">
         <is>
-          <t>富国中证芯片产业ETF发起式联接C</t>
+          <t>华宝纳斯达克精选股票发起式(QDII)C</t>
         </is>
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>159995</t>
+          <t>513300</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
         <is>
-          <t>芯片ETF</t>
+          <t>纳斯达克ETF</t>
         </is>
       </c>
       <c r="E6" s="6" t="inlineStr">
         <is>
-          <t>-0.06%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F6" s="6" t="n">
@@ -771,38 +771,38 @@
       </c>
       <c r="H6" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="7" ht="18" customHeight="1">
       <c r="A7" s="5" t="inlineStr">
         <is>
-          <t>000834</t>
+          <t>010955</t>
         </is>
       </c>
       <c r="B7" s="10" t="inlineStr">
         <is>
-          <t>大成纳斯达克100ETF联接(QDII)A</t>
+          <t>天弘中证智能汽车指数发起式A</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
         <is>
-          <t>513300</t>
+          <t>515250</t>
         </is>
       </c>
       <c r="D7" s="5" t="inlineStr">
         <is>
-          <t>纳斯达克ETF</t>
+          <t>智能汽车ETF</t>
         </is>
       </c>
       <c r="E7" s="6" t="inlineStr">
         <is>
-          <t>0.75%</t>
+          <t>0.98%</t>
         </is>
       </c>
       <c r="F7" s="6" t="n">
-        <v>3300</v>
+        <v>3600</v>
       </c>
       <c r="G7" s="15">
         <f>F7*E7</f>
@@ -810,7 +810,7 @@
       </c>
       <c r="H7" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
@@ -837,11 +837,11 @@
       </c>
       <c r="E8" s="6" t="inlineStr">
         <is>
-          <t>0.70%</t>
+          <t>0.11%</t>
         </is>
       </c>
       <c r="F8" s="6" t="n">
-        <v>3300</v>
+        <v>3400</v>
       </c>
       <c r="G8" s="15">
         <f>F8*E8</f>
@@ -849,7 +849,7 @@
       </c>
       <c r="H8" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
@@ -876,7 +876,7 @@
       </c>
       <c r="E9" s="6" t="inlineStr">
         <is>
-          <t>0.32%</t>
+          <t>0.63%</t>
         </is>
       </c>
       <c r="F9" s="6" t="n">
@@ -888,38 +888,38 @@
       </c>
       <c r="H9" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="10" ht="18" customHeight="1">
       <c r="A10" s="5" t="inlineStr">
         <is>
-          <t>006939</t>
+          <t>012734</t>
         </is>
       </c>
       <c r="B10" s="10" t="inlineStr">
         <is>
-          <t>鹏华沪深300ETF联接(LOF)C</t>
+          <t>易方达中证人工智能主题ETF联接C</t>
         </is>
       </c>
       <c r="C10" s="5" t="inlineStr">
         <is>
-          <t>510300</t>
+          <t>159819</t>
         </is>
       </c>
       <c r="D10" s="5" t="inlineStr">
         <is>
-          <t>沪深300ETF</t>
+          <t>人工智能ETF</t>
         </is>
       </c>
       <c r="E10" s="6" t="inlineStr">
         <is>
-          <t>0.02%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="F10" s="6" t="n">
-        <v>3100</v>
+        <v>3300</v>
       </c>
       <c r="G10" s="15">
         <f>F10*E10</f>
@@ -927,38 +927,38 @@
       </c>
       <c r="H10" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="11" ht="18" customHeight="1">
       <c r="A11" s="5" t="inlineStr">
         <is>
-          <t>010955</t>
+          <t>006939</t>
         </is>
       </c>
       <c r="B11" s="10" t="inlineStr">
         <is>
-          <t>天弘中证智能汽车指数发起式A</t>
+          <t>鹏华沪深300ETF联接(LOF)C</t>
         </is>
       </c>
       <c r="C11" s="5" t="inlineStr">
         <is>
-          <t>515250</t>
+          <t>510300</t>
         </is>
       </c>
       <c r="D11" s="5" t="inlineStr">
         <is>
-          <t>智能汽车ETF</t>
+          <t>沪深300ETF</t>
         </is>
       </c>
       <c r="E11" s="6" t="inlineStr">
         <is>
-          <t>-0.73%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="F11" s="6" t="n">
-        <v>3000</v>
+        <v>3200</v>
       </c>
       <c r="G11" s="15">
         <f>F11*E11</f>
@@ -966,34 +966,34 @@
       </c>
       <c r="H11" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="12" ht="18" customHeight="1">
       <c r="A12" s="5" t="inlineStr">
         <is>
-          <t>012734</t>
+          <t>020981</t>
         </is>
       </c>
       <c r="B12" s="10" t="inlineStr">
         <is>
-          <t>易方达中证人工智能主题ETF联接C</t>
+          <t>华安国证机器人产业指数发起式A</t>
         </is>
       </c>
       <c r="C12" s="5" t="inlineStr">
         <is>
-          <t>159819</t>
+          <t>560630</t>
         </is>
       </c>
       <c r="D12" s="5" t="inlineStr">
         <is>
-          <t>人工智能ETF</t>
+          <t>机器人产业ETF</t>
         </is>
       </c>
       <c r="E12" s="6" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>0.38%</t>
         </is>
       </c>
       <c r="F12" s="6" t="n">
@@ -1005,38 +1005,38 @@
       </c>
       <c r="H12" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="13" ht="18" customHeight="1">
       <c r="A13" s="5" t="inlineStr">
         <is>
-          <t>016566</t>
+          <t>018897</t>
         </is>
       </c>
       <c r="B13" s="10" t="inlineStr">
         <is>
-          <t>嘉实中证电池主题ETF发起联接A</t>
+          <t>易方达消费电子ETF联接C</t>
         </is>
       </c>
       <c r="C13" s="5" t="inlineStr">
         <is>
-          <t>562880</t>
+          <t>562950</t>
         </is>
       </c>
       <c r="D13" s="5" t="inlineStr">
         <is>
-          <t>电池ETF嘉实</t>
+          <t>消费电子ETF易方达</t>
         </is>
       </c>
       <c r="E13" s="6" t="inlineStr">
         <is>
-          <t>-0.84%</t>
+          <t>1.23%</t>
         </is>
       </c>
       <c r="F13" s="6" t="n">
-        <v>2800</v>
+        <v>2700</v>
       </c>
       <c r="G13" s="15">
         <f>F13*E13</f>
@@ -1044,34 +1044,34 @@
       </c>
       <c r="H13" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，震荡市，高位减持 10.00% 仓位</t>
         </is>
       </c>
     </row>
     <row r="14" ht="18" customHeight="1">
       <c r="A14" s="5" t="inlineStr">
         <is>
-          <t>020981</t>
+          <t>014172</t>
         </is>
       </c>
       <c r="B14" s="10" t="inlineStr">
         <is>
-          <t>华安国证机器人产业指数发起式A</t>
+          <t>富国中证工业4.0指数(LOF)C</t>
         </is>
       </c>
       <c r="C14" s="5" t="inlineStr">
         <is>
-          <t>560630</t>
+          <t>399803</t>
         </is>
       </c>
       <c r="D14" s="5" t="inlineStr">
         <is>
-          <t>机器人产业ETF</t>
+          <t>工业4.0</t>
         </is>
       </c>
       <c r="E14" s="6" t="inlineStr">
         <is>
-          <t>-0.67%</t>
+          <t>1.11%</t>
         </is>
       </c>
       <c r="F14" s="6" t="n">
@@ -1083,38 +1083,38 @@
       </c>
       <c r="H14" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，震荡市，低位吸纳 200.00</t>
         </is>
       </c>
     </row>
     <row r="15" ht="18" customHeight="1">
       <c r="A15" s="5" t="inlineStr">
         <is>
-          <t>018897</t>
+          <t>000834</t>
         </is>
       </c>
       <c r="B15" s="10" t="inlineStr">
         <is>
-          <t>易方达消费电子ETF联接C</t>
+          <t>大成纳斯达克100ETF联接(QDII)A</t>
         </is>
       </c>
       <c r="C15" s="5" t="inlineStr">
         <is>
-          <t>562950</t>
+          <t>513300</t>
         </is>
       </c>
       <c r="D15" s="5" t="inlineStr">
         <is>
-          <t>消费电子ETF易方达</t>
+          <t>纳斯达克ETF</t>
         </is>
       </c>
       <c r="E15" s="6" t="inlineStr">
         <is>
-          <t>-0.33%</t>
+          <t>-0.21%</t>
         </is>
       </c>
       <c r="F15" s="6" t="n">
-        <v>2600</v>
+        <v>2400</v>
       </c>
       <c r="G15" s="15">
         <f>F15*E15</f>
@@ -1122,38 +1122,38 @@
       </c>
       <c r="H15" s="6" t="inlineStr">
         <is>
-          <t>震荡市突破中，等待确认</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="16" ht="18" customHeight="1">
       <c r="A16" s="5" t="inlineStr">
         <is>
-          <t>014172</t>
+          <t>013195</t>
         </is>
       </c>
       <c r="B16" s="10" t="inlineStr">
         <is>
-          <t>富国中证工业4.0指数(LOF)C</t>
+          <t>招商中证新能源汽车指数A</t>
         </is>
       </c>
       <c r="C16" s="5" t="inlineStr">
         <is>
-          <t>399803</t>
+          <t>516390</t>
         </is>
       </c>
       <c r="D16" s="5" t="inlineStr">
         <is>
-          <t>工业4.0</t>
+          <t>新能源汽车ETF</t>
         </is>
       </c>
       <c r="E16" s="6" t="inlineStr">
         <is>
-          <t>-0.49%</t>
+          <t>0.20%</t>
         </is>
       </c>
       <c r="F16" s="6" t="n">
-        <v>2300</v>
+        <v>2400</v>
       </c>
       <c r="G16" s="15">
         <f>F16*E16</f>
@@ -1161,38 +1161,38 @@
       </c>
       <c r="H16" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="17" ht="18" customHeight="1">
       <c r="A17" s="5" t="inlineStr">
         <is>
-          <t>016202</t>
+          <t>016566</t>
         </is>
       </c>
       <c r="B17" s="10" t="inlineStr">
         <is>
-          <t>汇添富全球汽车产业升级混合(QDII)人民币C</t>
+          <t>嘉实中证电池主题ETF发起联接A</t>
         </is>
       </c>
       <c r="C17" s="5" t="inlineStr">
         <is>
-          <t>TSLA</t>
+          <t>562880</t>
         </is>
       </c>
       <c r="D17" s="5" t="inlineStr">
         <is>
-          <t>特斯拉</t>
+          <t>电池ETF嘉实</t>
         </is>
       </c>
       <c r="E17" s="6" t="inlineStr">
         <is>
-          <t>-0.21%</t>
+          <t>0.24%</t>
         </is>
       </c>
       <c r="F17" s="6" t="n">
-        <v>2000</v>
+        <v>2300</v>
       </c>
       <c r="G17" s="15">
         <f>F17*E17</f>
@@ -1200,38 +1200,38 @@
       </c>
       <c r="H17" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="18" ht="18" customHeight="1">
       <c r="A18" s="5" t="inlineStr">
         <is>
-          <t>161724</t>
+          <t>020629</t>
         </is>
       </c>
       <c r="B18" s="10" t="inlineStr">
         <is>
-          <t>招商中证煤炭等权指数(LOF)A</t>
+          <t>汇添富上证科创板芯片ETF发起式联接C</t>
         </is>
       </c>
       <c r="C18" s="5" t="inlineStr">
         <is>
-          <t>515220</t>
+          <t>588750</t>
         </is>
       </c>
       <c r="D18" s="5" t="inlineStr">
         <is>
-          <t>煤炭ETF</t>
+          <t>科创芯片50ETF</t>
         </is>
       </c>
       <c r="E18" s="6" t="inlineStr">
         <is>
-          <t>1.14%</t>
+          <t>0.84%</t>
         </is>
       </c>
       <c r="F18" s="6" t="n">
-        <v>2000</v>
+        <v>2200</v>
       </c>
       <c r="G18" s="15">
         <f>F18*E18</f>
@@ -1239,36 +1239,34 @@
       </c>
       <c r="H18" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → WU，震荡→弱升，试探性建仓 200.00</t>
         </is>
       </c>
     </row>
     <row r="19" ht="18" customHeight="1">
       <c r="A19" s="5" t="inlineStr">
         <is>
-          <t>015282</t>
+          <t>018156</t>
         </is>
       </c>
       <c r="B19" s="10" t="inlineStr">
         <is>
-          <t>华安恒生科技ETF发起式联接(QDII)A</t>
-        </is>
-      </c>
-      <c r="C19" s="5" t="n">
-        <v>513580</v>
-      </c>
+          <t>创金合信全球医药生物股票发起(QDII)C</t>
+        </is>
+      </c>
+      <c r="C19" s="5" t="n"/>
       <c r="D19" s="5" t="inlineStr">
         <is>
-          <t>恒生科技ETF指数</t>
+          <t>None</t>
         </is>
       </c>
       <c r="E19" s="6" t="inlineStr">
         <is>
-          <t>-1.08%</t>
+          <t>0.00%</t>
         </is>
       </c>
       <c r="F19" s="6" t="n">
-        <v>1800</v>
+        <v>2000</v>
       </c>
       <c r="G19" s="15">
         <f>F19*E19</f>
@@ -1276,38 +1274,38 @@
       </c>
       <c r="H19" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，震荡市，低位吸纳 200.00</t>
         </is>
       </c>
     </row>
     <row r="20" ht="18" customHeight="1">
       <c r="A20" s="5" t="inlineStr">
         <is>
-          <t>020629</t>
+          <t>006888</t>
         </is>
       </c>
       <c r="B20" s="10" t="inlineStr">
         <is>
-          <t>汇添富上证科创板芯片ETF发起式联接C</t>
+          <t>诺德新生活混合C</t>
         </is>
       </c>
       <c r="C20" s="5" t="inlineStr">
         <is>
-          <t>588750</t>
+          <t>688498</t>
         </is>
       </c>
       <c r="D20" s="5" t="inlineStr">
         <is>
-          <t>科创芯片50ETF</t>
+          <t>源杰科技</t>
         </is>
       </c>
       <c r="E20" s="6" t="inlineStr">
         <is>
-          <t>-0.34%</t>
+          <t>0.51%</t>
         </is>
       </c>
       <c r="F20" s="6" t="n">
-        <v>1700</v>
+        <v>2000</v>
       </c>
       <c r="G20" s="15">
         <f>F20*E20</f>
@@ -1315,38 +1313,38 @@
       </c>
       <c r="H20" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="21" ht="18" customHeight="1">
       <c r="A21" s="5" t="inlineStr">
         <is>
-          <t>006888</t>
+          <t>016202</t>
         </is>
       </c>
       <c r="B21" s="10" t="inlineStr">
         <is>
-          <t>诺德新生活混合C</t>
+          <t>汇添富全球汽车产业升级混合(QDII)人民币C</t>
         </is>
       </c>
       <c r="C21" s="5" t="inlineStr">
         <is>
-          <t>688498</t>
+          <t>TSLA</t>
         </is>
       </c>
       <c r="D21" s="5" t="inlineStr">
         <is>
-          <t>源杰科技</t>
+          <t>特斯拉</t>
         </is>
       </c>
       <c r="E21" s="6" t="inlineStr">
         <is>
-          <t>6.07%</t>
+          <t>-0.65%</t>
         </is>
       </c>
       <c r="F21" s="6" t="n">
-        <v>1700</v>
+        <v>1900</v>
       </c>
       <c r="G21" s="15">
         <f>F21*E21</f>
@@ -1354,38 +1352,38 @@
       </c>
       <c r="H21" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="22" ht="18" customHeight="1">
       <c r="A22" s="5" t="inlineStr">
         <is>
-          <t>005634</t>
+          <t>018956</t>
         </is>
       </c>
       <c r="B22" s="10" t="inlineStr">
         <is>
-          <t>汇安行业龙头混合A</t>
+          <t>中航机遇领航混合发起A</t>
         </is>
       </c>
       <c r="C22" s="5" t="inlineStr">
         <is>
-          <t>688596</t>
+          <t>002837</t>
         </is>
       </c>
       <c r="D22" s="5" t="inlineStr">
         <is>
-          <t>正帆科技</t>
+          <t>英维克</t>
         </is>
       </c>
       <c r="E22" s="6" t="inlineStr">
         <is>
-          <t>-1.11%</t>
+          <t>7.59%</t>
         </is>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1500</v>
+        <v>1900</v>
       </c>
       <c r="G22" s="15">
         <f>F22*E22</f>
@@ -1393,38 +1391,36 @@
       </c>
       <c r="H22" s="6" t="inlineStr">
         <is>
-          <t>震荡市，发现建仓机会，建议投资 1000.00</t>
+          <t>WU → SU，弱升→强升，加速加仓 400.00</t>
         </is>
       </c>
     </row>
     <row r="23" ht="18" customHeight="1">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>006327</t>
+          <t>015282</t>
         </is>
       </c>
       <c r="B23" s="10" t="inlineStr">
         <is>
-          <t>易方达中证海外互联网50ETF联接(QDII)A</t>
-        </is>
-      </c>
-      <c r="C23" s="5" t="inlineStr">
-        <is>
-          <t>513050</t>
-        </is>
+          <t>华安恒生科技ETF发起式联接(QDII)A</t>
+        </is>
+      </c>
+      <c r="C23" s="5" t="n">
+        <v>513580</v>
       </c>
       <c r="D23" s="5" t="inlineStr">
         <is>
-          <t>中概互联网ETF</t>
+          <t>恒生科技ETF指数</t>
         </is>
       </c>
       <c r="E23" s="6" t="inlineStr">
         <is>
-          <t>-1.10%</t>
+          <t>0.41%</t>
         </is>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1500</v>
+        <v>1800</v>
       </c>
       <c r="G23" s="15">
         <f>F23*E23</f>
@@ -1432,38 +1428,38 @@
       </c>
       <c r="H23" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>CO → CO，长期下跌，减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
     <row r="24" ht="18" customHeight="1">
       <c r="A24" s="5" t="inlineStr">
         <is>
-          <t>018956</t>
+          <t>005634</t>
         </is>
       </c>
       <c r="B24" s="10" t="inlineStr">
         <is>
-          <t>中航机遇领航混合发起A</t>
+          <t>汇安行业龙头混合A</t>
         </is>
       </c>
       <c r="C24" s="5" t="inlineStr">
         <is>
-          <t>002837</t>
+          <t>688596</t>
         </is>
       </c>
       <c r="D24" s="5" t="inlineStr">
         <is>
-          <t>英维克</t>
+          <t>正帆科技</t>
         </is>
       </c>
       <c r="E24" s="6" t="inlineStr">
         <is>
-          <t>0.74%</t>
+          <t>0.88%</t>
         </is>
       </c>
       <c r="F24" s="6" t="n">
-        <v>1300</v>
+        <v>1500</v>
       </c>
       <c r="G24" s="15">
         <f>F24*E24</f>
@@ -1471,38 +1467,38 @@
       </c>
       <c r="H24" s="6" t="inlineStr">
         <is>
-          <t>趋势保持弱升，小加仓 100.00</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="25" ht="18" customHeight="1">
       <c r="A25" s="5" t="inlineStr">
         <is>
-          <t>019305</t>
+          <t>006327</t>
         </is>
       </c>
       <c r="B25" s="10" t="inlineStr">
         <is>
-          <t>摩根标普500指数(QDII)人民币C</t>
+          <t>易方达中证海外互联网50ETF联接(QDII)A</t>
         </is>
       </c>
       <c r="C25" s="5" t="inlineStr">
         <is>
-          <t>161125</t>
+          <t>513050</t>
         </is>
       </c>
       <c r="D25" s="5" t="inlineStr">
         <is>
-          <t>标普500LOF</t>
+          <t>中概互联网ETF</t>
         </is>
       </c>
       <c r="E25" s="6" t="inlineStr">
         <is>
-          <t>0.60%</t>
+          <t>-0.27%</t>
         </is>
       </c>
       <c r="F25" s="6" t="n">
-        <v>1200</v>
+        <v>1500</v>
       </c>
       <c r="G25" s="15">
         <f>F25*E25</f>
@@ -1510,34 +1506,38 @@
       </c>
       <c r="H25" s="6" t="inlineStr">
         <is>
-          <t>震荡市，高位减持 -10.00% 仓位</t>
+          <t>CO → CO，无操作</t>
         </is>
       </c>
     </row>
     <row r="26" ht="18" customHeight="1">
       <c r="A26" s="5" t="inlineStr">
         <is>
-          <t>018156</t>
+          <t>161724</t>
         </is>
       </c>
       <c r="B26" s="10" t="inlineStr">
         <is>
-          <t>创金合信全球医药生物股票发起(QDII)C</t>
-        </is>
-      </c>
-      <c r="C26" s="5" t="n"/>
+          <t>招商中证煤炭等权指数(LOF)A</t>
+        </is>
+      </c>
+      <c r="C26" s="5" t="inlineStr">
+        <is>
+          <t>515220</t>
+        </is>
+      </c>
       <c r="D26" s="5" t="inlineStr">
         <is>
-          <t>Nuveen New York Quality Municip</t>
+          <t>XD煤炭ETF</t>
         </is>
       </c>
       <c r="E26" s="6" t="inlineStr">
         <is>
-          <t>0.35%</t>
+          <t>-1.05%</t>
         </is>
       </c>
       <c r="F26" s="6" t="n">
-        <v>1000</v>
+        <v>1500</v>
       </c>
       <c r="G26" s="15">
         <f>F26*E26</f>
@@ -1545,7 +1545,7 @@
       </c>
       <c r="H26" s="6" t="inlineStr">
         <is>
-          <t>趋势保持弱升，小加仓 100.00</t>
+          <t>CO → CO，长期下跌，减仓 10.00% 仓位</t>
         </is>
       </c>
     </row>
@@ -1572,11 +1572,11 @@
       </c>
       <c r="E27" s="6" t="inlineStr">
         <is>
-          <t>0.25%</t>
+          <t>0.49%</t>
         </is>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1000</v>
+        <v>1300</v>
       </c>
       <c r="G27" s="15">
         <f>F27*E27</f>
@@ -1584,38 +1584,38 @@
       </c>
       <c r="H27" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="28" ht="18" customHeight="1">
       <c r="A28" s="5" t="inlineStr">
         <is>
-          <t>013195</t>
+          <t>290008</t>
         </is>
       </c>
       <c r="B28" s="10" t="inlineStr">
         <is>
-          <t>招商中证新能源汽车指数A</t>
+          <t>泰信发展主题混合</t>
         </is>
       </c>
       <c r="C28" s="5" t="inlineStr">
         <is>
-          <t>516390</t>
+          <t>002460</t>
         </is>
       </c>
       <c r="D28" s="5" t="inlineStr">
         <is>
-          <t>新能源汽车ETF</t>
+          <t>赣锋锂业</t>
         </is>
       </c>
       <c r="E28" s="6" t="inlineStr">
         <is>
-          <t>-1.45%</t>
+          <t>-0.02%</t>
         </is>
       </c>
       <c r="F28" s="6" t="n">
-        <v>1000</v>
+        <v>1100</v>
       </c>
       <c r="G28" s="15">
         <f>F28*E28</f>
@@ -1623,38 +1623,38 @@
       </c>
       <c r="H28" s="6" t="inlineStr">
         <is>
-          <t>震荡市，低位吸纳 200.00</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="29" ht="18" customHeight="1">
       <c r="A29" s="5" t="inlineStr">
         <is>
-          <t>290008</t>
+          <t>021074</t>
         </is>
       </c>
       <c r="B29" s="10" t="inlineStr">
         <is>
-          <t>泰信发展主题混合</t>
+          <t>华夏中证沪深港黄金产业股票ETF发起式联接A</t>
         </is>
       </c>
       <c r="C29" s="5" t="inlineStr">
         <is>
-          <t>002460</t>
+          <t>159562</t>
         </is>
       </c>
       <c r="D29" s="5" t="inlineStr">
         <is>
-          <t>赣锋锂业</t>
+          <t>黄金股ETF</t>
         </is>
       </c>
       <c r="E29" s="6" t="inlineStr">
         <is>
-          <t>-1.74%</t>
+          <t>-0.79%</t>
         </is>
       </c>
       <c r="F29" s="6" t="n">
-        <v>950</v>
+        <v>1000</v>
       </c>
       <c r="G29" s="15">
         <f>F29*E29</f>
@@ -1662,38 +1662,38 @@
       </c>
       <c r="H29" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>WU → WU，趋势保持弱升，小加仓 100.00</t>
         </is>
       </c>
     </row>
     <row r="30" ht="18" customHeight="1">
       <c r="A30" s="5" t="inlineStr">
         <is>
-          <t>021074</t>
+          <t>019305</t>
         </is>
       </c>
       <c r="B30" s="10" t="inlineStr">
         <is>
-          <t>华夏中证沪深港黄金产业股票ETF发起式联接A</t>
+          <t>摩根标普500指数(QDII)人民币C</t>
         </is>
       </c>
       <c r="C30" s="5" t="inlineStr">
         <is>
-          <t>159562</t>
+          <t>161125</t>
         </is>
       </c>
       <c r="D30" s="5" t="inlineStr">
         <is>
-          <t>黄金股ETF</t>
+          <t>标普500LOF</t>
         </is>
       </c>
       <c r="E30" s="6" t="inlineStr">
         <is>
-          <t>0.65%</t>
+          <t>0.40%</t>
         </is>
       </c>
       <c r="F30" s="6" t="n">
-        <v>700</v>
+        <v>1000</v>
       </c>
       <c r="G30" s="15">
         <f>F30*E30</f>
@@ -1701,7 +1701,7 @@
       </c>
       <c r="H30" s="6" t="inlineStr">
         <is>
-          <t>震荡市，未发现操作点</t>
+          <t>震荡市，发现建仓机会，建议投资 1000.00</t>
         </is>
       </c>
     </row>
@@ -1725,11 +1725,7 @@
       <c r="H31" s="6" t="n"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:N31">
-    <sortState ref="A3:H31">
-      <sortCondition ref="B2:B31"/>
-    </sortState>
-  </autoFilter>
+  <autoFilter ref="A2:H2"/>
   <mergeCells count="1">
     <mergeCell ref="A1:H1"/>
   </mergeCells>
